--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotov\Desktop\diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5A45E9-CE06-448D-A5A0-D5C11005FD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69A4B0-7CC3-4403-A88F-D8F080D0E4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,18 +118,12 @@
     <t>Фильтрация новостей по дате и времени публикации</t>
   </si>
   <si>
-    <t>Проверка отображения новостей при отсутствии интернет-соединения.</t>
-  </si>
-  <si>
     <t>Всплывающее окно поступившего SMS</t>
   </si>
   <si>
     <t>Всплывающее окно входящего звонка</t>
   </si>
   <si>
-    <t>Проверка работы на разных устройствах и разных разрешениях экрана</t>
-  </si>
-  <si>
     <t xml:space="preserve">Авторизация на устройстве с параметрами экрана 800*480 пикселей </t>
   </si>
   <si>
@@ -148,12 +142,6 @@
     <t>Авторизация зарегистрированного пользователя с неверным паролем</t>
   </si>
   <si>
-    <t>Проверка валидации поля "Логин" (в т.ч проверка влияния регистра)</t>
-  </si>
-  <si>
-    <t>Проверка валидации поля "Пароль" (в т.ч проверка влияния регистра)</t>
-  </si>
-  <si>
     <t>Авторизация с пустыми полями</t>
   </si>
   <si>
@@ -211,12 +199,6 @@
     <t>Отображение сообщения об ошибке при отсутствии новостей</t>
   </si>
   <si>
-    <t>Проверка поведения системы при попытке загрузить новости из недоступного источника</t>
-  </si>
-  <si>
-    <t>Проверка правильности обработки невалидных данных новостей (например, некорректный формат даты).</t>
-  </si>
-  <si>
     <t>Развернуть/свернуть новость.</t>
   </si>
   <si>
@@ -251,6 +233,24 @@
   </si>
   <si>
     <t xml:space="preserve"> "О приложении" </t>
+  </si>
+  <si>
+    <t>Валидация поля "Логин" (в т.ч проверка влияния регистра)</t>
+  </si>
+  <si>
+    <t>Валидация поля "Пароль" (в т.ч проверка влияния регистра)</t>
+  </si>
+  <si>
+    <t>Поведение системы при попытке загрузить новости из недоступного источника</t>
+  </si>
+  <si>
+    <t>Правильность обработки невалидных данных новостей (например, невалидный формат даты).</t>
+  </si>
+  <si>
+    <t>Отображение новостей при отсутствии интернет-соединения.</t>
+  </si>
+  <si>
+    <t>Работа на разных устройствах и разных разрешениях экрана</t>
   </si>
 </sst>
 </file>
@@ -754,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -785,61 +785,61 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,45 +863,45 @@
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,12 +913,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>11</v>
@@ -927,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -947,39 +947,39 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
       <c r="B17" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,24 +1041,24 @@
         <v>5</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>21</v>
@@ -1067,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,21 +1091,21 @@
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1117,21 +1117,21 @@
         <v>6</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1143,19 +1143,19 @@
         <v>6</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1167,19 +1167,19 @@
         <v>5</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,43 +1191,43 @@
         <v>5</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,43 +1239,43 @@
         <v>5</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,157 +1323,157 @@
         <v>6</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="21" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="21" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="17" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="B53" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28"/>
       <c r="B55" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28"/>
       <c r="B56" s="21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
